--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="10020"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
   </bookViews>
   <sheets>
     <sheet name="BOM" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="101">
   <si>
     <t>RefDes</t>
   </si>
@@ -33,21 +33,12 @@
     <t>Manufacturer</t>
   </si>
   <si>
-    <t>C1</t>
-  </si>
-  <si>
     <t>C-EUC1206</t>
   </si>
   <si>
     <t>10u 16V</t>
   </si>
   <si>
-    <t>C2</t>
-  </si>
-  <si>
-    <t>10u</t>
-  </si>
-  <si>
     <t>C3, C4, C5, C6</t>
   </si>
   <si>
@@ -111,9 +102,6 @@
     <t>644456-8</t>
   </si>
   <si>
-    <t>Display Header</t>
-  </si>
-  <si>
     <t>PCB101</t>
   </si>
   <si>
@@ -240,9 +228,6 @@
     <t>https://www.digikey.com/product-detail/en/panasonic-electronic-components/ERJ-PA3J105V/P1MBZCT-ND/5036239</t>
   </si>
   <si>
-    <t>https://www.digikey.com/product-detail/en/schurter-inc/4832.1300/4832.1300-ND/1731051</t>
-  </si>
-  <si>
     <t>3.5mm male plug</t>
   </si>
   <si>
@@ -280,13 +265,70 @@
   </si>
   <si>
     <t>lcd screen</t>
+  </si>
+  <si>
+    <t>PCB Components</t>
+  </si>
+  <si>
+    <t>Qty</t>
+  </si>
+  <si>
+    <t>C1, C2</t>
+  </si>
+  <si>
+    <t>Misc. Components</t>
+  </si>
+  <si>
+    <t>Texas Instruments</t>
+  </si>
+  <si>
+    <t>Sparkfun</t>
+  </si>
+  <si>
+    <t>Adafruit</t>
+  </si>
+  <si>
+    <t>35HD</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/switchcraft-inc/35HDBNS/SC1573-ND/1289606</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Order Qty.</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/switchcraft-inc/35RAPC4BHN3/SC2405-ND/1288738</t>
+  </si>
+  <si>
+    <t>poss replacement for phone conn</t>
+  </si>
+  <si>
+    <t>http://www.switchcraft.com/Drawings/35rapc__hn3_cd.pdf</t>
+  </si>
+  <si>
+    <t>http://www.cui.com/product/resource/pd-40v.pdf</t>
+  </si>
+  <si>
+    <t>4-pin</t>
+  </si>
+  <si>
+    <t>1/4 jack</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/switchcraft-inc/297/SC1084-ND/109512</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/switchcraft-inc/RA49C14B/SC1541-ND/1289209</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -440,6 +482,21 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="33">
@@ -739,7 +796,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -782,22 +839,37 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="42"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -831,6 +903,7 @@
     <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="42" builtinId="8"/>
     <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
@@ -1151,371 +1224,676 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F35"/>
+  <dimension ref="A1:H46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="H45" sqref="H45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
     <col min="4" max="4" width="16.5703125" customWidth="1"/>
     <col min="5" max="5" width="19.7109375" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" customWidth="1"/>
+    <col min="7" max="7" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" s="2"/>
+    </row>
+    <row r="2" spans="1:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3" t="s">
+      <c r="B2" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E2" s="5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="F2" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B3" s="7">
+        <v>2</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F2" t="s">
+      <c r="B4" s="7">
+        <v>4</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="7">
+        <v>1</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="6"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="D6" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="7">
+        <v>1</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="7">
+        <v>1</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="7">
+        <v>1</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="7">
+        <v>1</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="7">
+        <v>3</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="7">
+        <v>1</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="7">
+        <v>1</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="7">
+        <v>1</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="6"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="7">
+        <v>1</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="7">
+        <v>1</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="7">
         <v>9</v>
       </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F9" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10" t="s">
-        <v>20</v>
-      </c>
-      <c r="F10" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" t="s">
-        <v>25</v>
-      </c>
-      <c r="F11" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" t="s">
-        <v>27</v>
-      </c>
-      <c r="F12" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" t="s">
-        <v>30</v>
-      </c>
-      <c r="E13" t="s">
-        <v>25</v>
-      </c>
-      <c r="F13" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" t="s">
-        <v>32</v>
-      </c>
-      <c r="F14" t="s">
+      <c r="C18" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="3" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F15" t="s">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="7">
+        <v>2</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="3" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C16" t="s">
-        <v>34</v>
-      </c>
-      <c r="E16" t="s">
-        <v>35</v>
-      </c>
-      <c r="F16" t="s">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" s="7">
+        <v>1</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="3" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" s="7">
+        <v>1</v>
+      </c>
+      <c r="C21" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C17" t="s">
-        <v>37</v>
-      </c>
-      <c r="E17" t="s">
-        <v>38</v>
-      </c>
-      <c r="F17" t="s">
+      <c r="D21" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="3" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C18" t="s">
-        <v>40</v>
-      </c>
-      <c r="D18" t="s">
-        <v>41</v>
-      </c>
-      <c r="F18" t="s">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" s="7">
+        <v>2</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="3" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C19" t="s">
-        <v>40</v>
-      </c>
-      <c r="D19" t="s">
-        <v>43</v>
-      </c>
-      <c r="F19" t="s">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B25" s="2"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C20" t="s">
-        <v>40</v>
-      </c>
-      <c r="D20" t="s">
-        <v>45</v>
-      </c>
-      <c r="F20" t="s">
+      <c r="B28" s="7">
+        <v>1</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="6" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C21" t="s">
-        <v>40</v>
-      </c>
-      <c r="D21" t="s">
-        <v>47</v>
-      </c>
-      <c r="F21" t="s">
+      <c r="B29" s="7">
+        <v>1</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="3" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C22" t="s">
-        <v>40</v>
-      </c>
-      <c r="D22" t="s">
-        <v>49</v>
-      </c>
-      <c r="F22" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C27" t="s">
-        <v>54</v>
-      </c>
-      <c r="D27" t="s">
-        <v>55</v>
-      </c>
-      <c r="E27" t="s">
-        <v>56</v>
-      </c>
-      <c r="F27" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="C28" s="4">
-        <v>4832.13</v>
-      </c>
-      <c r="F28" t="s">
+      <c r="B30" s="7">
+        <v>1</v>
+      </c>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="3" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="B31" s="7">
+        <v>1</v>
+      </c>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B32" s="7">
+        <v>1</v>
+      </c>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="F29" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="F30" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="F31" t="s">
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="6" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="F32" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>86</v>
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="6"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="6"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+      <c r="H37" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="6"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="6"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H41" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H42" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H44" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H45" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H46" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A25:B26"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="H5" r:id="rId1"/>
+    <hyperlink ref="H3" r:id="rId2"/>
+    <hyperlink ref="H4" r:id="rId3"/>
+    <hyperlink ref="H7" r:id="rId4"/>
+    <hyperlink ref="H8" r:id="rId5"/>
+    <hyperlink ref="H9" r:id="rId6"/>
+    <hyperlink ref="H10" r:id="rId7"/>
+    <hyperlink ref="H11" r:id="rId8"/>
+    <hyperlink ref="H12" r:id="rId9"/>
+    <hyperlink ref="H13" r:id="rId10"/>
+    <hyperlink ref="H14" r:id="rId11"/>
+    <hyperlink ref="H15" r:id="rId12"/>
+    <hyperlink ref="H16" r:id="rId13"/>
+    <hyperlink ref="H17" r:id="rId14"/>
+    <hyperlink ref="H18" r:id="rId15"/>
+    <hyperlink ref="H19" r:id="rId16"/>
+    <hyperlink ref="H20" r:id="rId17"/>
+    <hyperlink ref="H21" r:id="rId18"/>
+    <hyperlink ref="H22" r:id="rId19"/>
+    <hyperlink ref="H6" r:id="rId20"/>
+    <hyperlink ref="H29" r:id="rId21"/>
+    <hyperlink ref="H30" r:id="rId22"/>
+    <hyperlink ref="H31" r:id="rId23"/>
+    <hyperlink ref="H32" r:id="rId24"/>
+    <hyperlink ref="H28" r:id="rId25"/>
+    <hyperlink ref="H38" r:id="rId26"/>
+    <hyperlink ref="H39" r:id="rId27"/>
+    <hyperlink ref="H42" r:id="rId28"/>
+    <hyperlink ref="H45" r:id="rId29"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId30"/>
 </worksheet>
 </file>
--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="108">
   <si>
     <t>RefDes</t>
   </si>
@@ -322,6 +322,27 @@
   </si>
   <si>
     <t>https://www.digikey.com/product-detail/en/switchcraft-inc/RA49C14B/SC1541-ND/1289209</t>
+  </si>
+  <si>
+    <t>http://www.mouser.com/ProductDetail/Neutrik/NP3TT-P-R/?qs=sGAEpiMZZMvlX3nhDDO4ADUfAUIJI3vk17qNd8zaPfU%3d</t>
+  </si>
+  <si>
+    <t>http://www.mouser.com/ProductDetail/Neutrik/NC3MXX-BAG/?qs=sGAEpiMZZMv0W4pxf2HiVxwZWAc2WDw0SRp5UVw1szU%3d</t>
+  </si>
+  <si>
+    <t>http://www.mouser.com/ProductDetail/Neutrik/NC3FD-LX-HA-BAG/?qs=sGAEpiMZZMv0W4pxf2HiV9FjHoe8lE%252bzh2neYdjq12U%3d</t>
+  </si>
+  <si>
+    <t>http://www.mouser.com/ProductDetail/Neutrik/BXX-2-RED/?qs=%2fha2pyFaduh9bwlS2wJrYXf3Cx2jUt5OYrvSBPEHSYg%3d</t>
+  </si>
+  <si>
+    <t>Neutrik XLR</t>
+  </si>
+  <si>
+    <t>640456-3</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/te-connectivity-amp-connectors/640456-3/A19470-ND/259010</t>
   </si>
 </sst>
 </file>
@@ -846,9 +867,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="42"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -867,6 +885,9 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -1224,10 +1245,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H46"/>
+  <dimension ref="A1:S58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="H45" sqref="H45"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1242,625 +1263,666 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="2"/>
+      <c r="B1" s="9"/>
     </row>
     <row r="2" spans="1:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="4" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="6">
         <v>2</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="3" t="s">
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="2" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="6">
         <v>4</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="3" t="s">
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="2" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="6">
         <v>1</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7" t="s">
+      <c r="D5" s="6"/>
+      <c r="E5" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="3" t="s">
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="2" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="6"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7" t="s">
+      <c r="A6" s="5"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="3" t="s">
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="2" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="6">
         <v>1</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="3" t="s">
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="2" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="6">
         <v>1</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="3" t="s">
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="2" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="6">
         <v>1</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7" t="s">
+      <c r="D9" s="6"/>
+      <c r="E9" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="3" t="s">
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="6">
+        <v>3</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="5"/>
+      <c r="B12" s="6">
+        <v>1</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="6">
+        <v>1</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="6">
+        <v>1</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="6">
+        <v>1</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="5"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="6">
+        <v>1</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="6">
+        <v>1</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="6">
+        <v>9</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="6">
+        <v>2</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="6">
+        <v>1</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" s="6">
+        <v>1</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" s="6">
+        <v>2</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B26" s="9"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="9"/>
+      <c r="B27" s="9"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B29" s="6">
+        <v>1</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B30" s="6">
+        <v>1</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B31" s="6">
+        <v>1</v>
+      </c>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B32" s="6">
+        <v>1</v>
+      </c>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B33" s="6">
+        <v>1</v>
+      </c>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="5"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="5"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
+      <c r="H38" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="5"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="5"/>
+      <c r="B40" s="6"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H42" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H43" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H45" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H46" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H47" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="49" spans="8:19" x14ac:dyDescent="0.25">
+      <c r="H49" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="51" spans="8:19" x14ac:dyDescent="0.25">
+      <c r="H51" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="52" spans="8:19" x14ac:dyDescent="0.25">
+      <c r="H52" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="53" spans="8:19" x14ac:dyDescent="0.25">
+      <c r="H53" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="54" spans="8:19" x14ac:dyDescent="0.25">
+      <c r="H54" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="58" spans="8:19" x14ac:dyDescent="0.25">
+      <c r="L58" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="7">
+      <c r="M58" s="6">
         <v>1</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="N58" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7" t="s">
+      <c r="O58" s="6"/>
+      <c r="P58" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="3" t="s">
+      <c r="Q58" s="6"/>
+      <c r="R58" s="6"/>
+      <c r="S58" s="2" t="s">
         <v>56</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="7">
-        <v>3</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="7">
-        <v>1</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" s="7">
-        <v>1</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" s="7">
-        <v>1</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="6"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B16" s="7">
-        <v>1</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" s="7">
-        <v>1</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B18" s="7">
-        <v>9</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B19" s="7">
-        <v>2</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B20" s="7">
-        <v>1</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B21" s="7">
-        <v>1</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B22" s="7">
-        <v>2</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="B25" s="2"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="B28" s="7">
-        <v>1</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="B29" s="7">
-        <v>1</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="B30" s="7">
-        <v>1</v>
-      </c>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="B31" s="7">
-        <v>1</v>
-      </c>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="B32" s="7">
-        <v>1</v>
-      </c>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="7"/>
-      <c r="H32" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="B33" s="7"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="B34" s="7"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="7"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="B35" s="7"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="7"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="6"/>
-      <c r="B36" s="7"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="7"/>
-      <c r="G36" s="7"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="6"/>
-      <c r="B37" s="7"/>
-      <c r="C37" s="7"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="7"/>
-      <c r="G37" s="7"/>
-      <c r="H37" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="6"/>
-      <c r="B38" s="7"/>
-      <c r="C38" s="7"/>
-      <c r="D38" s="7"/>
-      <c r="E38" s="7"/>
-      <c r="F38" s="7"/>
-      <c r="G38" s="7"/>
-      <c r="H38" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="6"/>
-      <c r="B39" s="7"/>
-      <c r="C39" s="7"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="7"/>
-      <c r="F39" s="7"/>
-      <c r="G39" s="7"/>
-      <c r="H39" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H41" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H42" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H44" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H45" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H46" t="s">
-        <v>99</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A25:B26"/>
+    <mergeCell ref="A26:B27"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="H5" r:id="rId1"/>
@@ -1869,31 +1931,37 @@
     <hyperlink ref="H7" r:id="rId4"/>
     <hyperlink ref="H8" r:id="rId5"/>
     <hyperlink ref="H9" r:id="rId6"/>
-    <hyperlink ref="H10" r:id="rId7"/>
+    <hyperlink ref="S58" r:id="rId7"/>
     <hyperlink ref="H11" r:id="rId8"/>
-    <hyperlink ref="H12" r:id="rId9"/>
-    <hyperlink ref="H13" r:id="rId10"/>
-    <hyperlink ref="H14" r:id="rId11"/>
-    <hyperlink ref="H15" r:id="rId12"/>
-    <hyperlink ref="H16" r:id="rId13"/>
-    <hyperlink ref="H17" r:id="rId14"/>
-    <hyperlink ref="H18" r:id="rId15"/>
-    <hyperlink ref="H19" r:id="rId16"/>
-    <hyperlink ref="H20" r:id="rId17"/>
-    <hyperlink ref="H21" r:id="rId18"/>
-    <hyperlink ref="H22" r:id="rId19"/>
+    <hyperlink ref="H13" r:id="rId9"/>
+    <hyperlink ref="H14" r:id="rId10"/>
+    <hyperlink ref="H15" r:id="rId11"/>
+    <hyperlink ref="H16" r:id="rId12"/>
+    <hyperlink ref="H17" r:id="rId13"/>
+    <hyperlink ref="H18" r:id="rId14"/>
+    <hyperlink ref="H19" r:id="rId15"/>
+    <hyperlink ref="H20" r:id="rId16"/>
+    <hyperlink ref="H21" r:id="rId17"/>
+    <hyperlink ref="H22" r:id="rId18"/>
+    <hyperlink ref="H23" r:id="rId19"/>
     <hyperlink ref="H6" r:id="rId20"/>
-    <hyperlink ref="H29" r:id="rId21"/>
-    <hyperlink ref="H30" r:id="rId22"/>
-    <hyperlink ref="H31" r:id="rId23"/>
-    <hyperlink ref="H32" r:id="rId24"/>
-    <hyperlink ref="H28" r:id="rId25"/>
-    <hyperlink ref="H38" r:id="rId26"/>
-    <hyperlink ref="H39" r:id="rId27"/>
-    <hyperlink ref="H42" r:id="rId28"/>
-    <hyperlink ref="H45" r:id="rId29"/>
+    <hyperlink ref="H30" r:id="rId21"/>
+    <hyperlink ref="H31" r:id="rId22"/>
+    <hyperlink ref="H32" r:id="rId23"/>
+    <hyperlink ref="H33" r:id="rId24"/>
+    <hyperlink ref="H29" r:id="rId25"/>
+    <hyperlink ref="H39" r:id="rId26"/>
+    <hyperlink ref="H40" r:id="rId27"/>
+    <hyperlink ref="H43" r:id="rId28"/>
+    <hyperlink ref="H46" r:id="rId29"/>
+    <hyperlink ref="H47" r:id="rId30"/>
+    <hyperlink ref="H49" r:id="rId31"/>
+    <hyperlink ref="H52" r:id="rId32"/>
+    <hyperlink ref="H53" r:id="rId33"/>
+    <hyperlink ref="H54" r:id="rId34"/>
+    <hyperlink ref="H12" r:id="rId35"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId30"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId36"/>
 </worksheet>
 </file>
--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="100">
   <si>
     <t>RefDes</t>
   </si>
@@ -201,12 +201,6 @@
     <t>https://www.digikey.com/product-detail/en/te-connectivity-amp-connectors/3-644456-8/A31118-ND/698350</t>
   </si>
   <si>
-    <t>https://www.sparkfun.com/products/11113</t>
-  </si>
-  <si>
-    <t>https://www.adafruit.com/product/2378</t>
-  </si>
-  <si>
     <t>https://www.digikey.com/product-detail/en/infineon-technologies/IRF7416PBF/IRF7416PBF-ND/808018</t>
   </si>
   <si>
@@ -285,9 +279,6 @@
     <t>Sparkfun</t>
   </si>
   <si>
-    <t>Adafruit</t>
-  </si>
-  <si>
     <t>35HD</t>
   </si>
   <si>
@@ -300,33 +291,6 @@
     <t>Order Qty.</t>
   </si>
   <si>
-    <t>https://www.digikey.com/product-detail/en/switchcraft-inc/35RAPC4BHN3/SC2405-ND/1288738</t>
-  </si>
-  <si>
-    <t>poss replacement for phone conn</t>
-  </si>
-  <si>
-    <t>http://www.switchcraft.com/Drawings/35rapc__hn3_cd.pdf</t>
-  </si>
-  <si>
-    <t>http://www.cui.com/product/resource/pd-40v.pdf</t>
-  </si>
-  <si>
-    <t>4-pin</t>
-  </si>
-  <si>
-    <t>1/4 jack</t>
-  </si>
-  <si>
-    <t>https://www.digikey.com/product-detail/en/switchcraft-inc/297/SC1084-ND/109512</t>
-  </si>
-  <si>
-    <t>https://www.digikey.com/product-detail/en/switchcraft-inc/RA49C14B/SC1541-ND/1289209</t>
-  </si>
-  <si>
-    <t>http://www.mouser.com/ProductDetail/Neutrik/NP3TT-P-R/?qs=sGAEpiMZZMvlX3nhDDO4ADUfAUIJI3vk17qNd8zaPfU%3d</t>
-  </si>
-  <si>
     <t>http://www.mouser.com/ProductDetail/Neutrik/NC3MXX-BAG/?qs=sGAEpiMZZMv0W4pxf2HiVxwZWAc2WDw0SRp5UVw1szU%3d</t>
   </si>
   <si>
@@ -336,20 +300,32 @@
     <t>http://www.mouser.com/ProductDetail/Neutrik/BXX-2-RED/?qs=%2fha2pyFaduh9bwlS2wJrYXf3Cx2jUt5OYrvSBPEHSYg%3d</t>
   </si>
   <si>
-    <t>Neutrik XLR</t>
-  </si>
-  <si>
     <t>640456-3</t>
   </si>
   <si>
     <t>https://www.digikey.com/product-detail/en/te-connectivity-amp-connectors/640456-3/A19470-ND/259010</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/sparkfun-electronics/DEV-11113/1568-1055-ND/5140820</t>
+  </si>
+  <si>
+    <t>XLR header base (red)</t>
+  </si>
+  <si>
+    <t>XLR 3-pin plug</t>
+  </si>
+  <si>
+    <t>3.5-8mm cable</t>
+  </si>
+  <si>
+    <t>XLR three-pin socket</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -492,13 +468,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -860,14 +829,14 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="42"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="42"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -884,10 +853,10 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -1245,10 +1214,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S58"/>
+  <dimension ref="A1:S57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:XFD10"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1263,17 +1232,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="B1" s="9"/>
+      <c r="A1" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" s="8"/>
     </row>
     <row r="2" spans="1:8" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>1</v>
@@ -1285,15 +1254,15 @@
         <v>3</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B3" s="6">
         <v>2</v>
@@ -1401,7 +1370,7 @@
         <v>14</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
@@ -1450,19 +1419,21 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
+      <c r="A12" s="5" t="s">
+        <v>18</v>
+      </c>
       <c r="B12" s="6">
         <v>1</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
       <c r="H12" s="2" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -1515,111 +1486,117 @@
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
       <c r="H15" s="2" t="s">
-        <v>60</v>
+        <v>95</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="5"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
+      <c r="A16" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="6">
+        <v>1</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="D16" s="6"/>
       <c r="E16" s="6" t="s">
-        <v>88</v>
+        <v>31</v>
       </c>
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
       <c r="H16" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B17" s="6">
         <v>1</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D17" s="6"/>
       <c r="E17" s="6" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
       <c r="H17" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B18" s="6">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6" t="s">
-        <v>34</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E18" s="6"/>
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
       <c r="H18" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B19" s="6">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
       <c r="H19" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B20" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
       <c r="H20" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B21" s="6">
         <v>1</v>
@@ -1628,93 +1605,89 @@
         <v>36</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
       <c r="H21" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B22" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C22" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
       <c r="H22" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="B25" s="8"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="8"/>
+      <c r="B26" s="8"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B23" s="6">
-        <v>2</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="2" t="s">
+      <c r="B28" s="6">
+        <v>1</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="B26" s="9"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="9"/>
-      <c r="B27" s="9"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
-        <v>69</v>
-      </c>
       <c r="B29" s="6">
         <v>1</v>
       </c>
-      <c r="C29" s="7" t="s">
-        <v>89</v>
+      <c r="C29" s="9" t="s">
+        <v>70</v>
       </c>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
       <c r="G29" s="6"/>
       <c r="H29" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B30" s="6">
         <v>1</v>
       </c>
-      <c r="C30" s="8" t="s">
-        <v>72</v>
-      </c>
+      <c r="C30" s="6"/>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
@@ -1725,7 +1698,7 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B31" s="6">
         <v>1</v>
@@ -1736,12 +1709,12 @@
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
       <c r="H31" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B32" s="6">
         <v>1</v>
@@ -1752,28 +1725,23 @@
       <c r="F32" s="6"/>
       <c r="G32" s="6"/>
       <c r="H32" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="B33" s="6">
-        <v>1</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="B33" s="6"/>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
       <c r="F33" s="6"/>
       <c r="G33" s="6"/>
-      <c r="H33" s="2" t="s">
-        <v>77</v>
-      </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
@@ -1784,9 +1752,11 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="B35" s="6"/>
+        <v>79</v>
+      </c>
+      <c r="B35" s="6">
+        <v>1</v>
+      </c>
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
       <c r="E35" s="6"/>
@@ -1795,134 +1765,99 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="B36" s="6"/>
+        <v>97</v>
+      </c>
+      <c r="B36" s="5">
+        <v>1</v>
+      </c>
       <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
+      <c r="D36" s="6" t="s">
+        <v>98</v>
+      </c>
       <c r="E36" s="6"/>
       <c r="F36" s="6"/>
       <c r="G36" s="6"/>
+      <c r="H36" s="2" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="5"/>
-      <c r="B37" s="6"/>
+      <c r="A37" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B37" s="5">
+        <v>1</v>
+      </c>
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
       <c r="F37" s="6"/>
       <c r="G37" s="6"/>
+      <c r="H37" s="2" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="5"/>
-      <c r="B38" s="6"/>
+      <c r="A38" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B38" s="6">
+        <v>1</v>
+      </c>
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
       <c r="E38" s="6"/>
       <c r="F38" s="6"/>
       <c r="G38" s="6"/>
-      <c r="H38" t="s">
-        <v>94</v>
+      <c r="H38" s="2" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="5"/>
       <c r="B39" s="6"/>
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
       <c r="F39" s="6"/>
       <c r="G39" s="6"/>
-      <c r="H39" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="5"/>
-      <c r="B40" s="6"/>
-      <c r="C40" s="6"/>
-      <c r="D40" s="6"/>
-      <c r="E40" s="6"/>
-      <c r="F40" s="6"/>
-      <c r="G40" s="6"/>
-      <c r="H40" s="2" t="s">
-        <v>95</v>
-      </c>
+      <c r="H39" s="2"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H42" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H43" s="2" t="s">
-        <v>96</v>
-      </c>
+      <c r="H42" s="2"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H45" t="s">
-        <v>98</v>
-      </c>
+      <c r="H45" s="2"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H46" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H47" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="49" spans="8:19" x14ac:dyDescent="0.25">
-      <c r="H49" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="51" spans="8:19" x14ac:dyDescent="0.25">
-      <c r="H51" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="52" spans="8:19" x14ac:dyDescent="0.25">
-      <c r="H52" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="53" spans="8:19" x14ac:dyDescent="0.25">
-      <c r="H53" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="54" spans="8:19" x14ac:dyDescent="0.25">
-      <c r="H54" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="58" spans="8:19" x14ac:dyDescent="0.25">
-      <c r="L58" s="5" t="s">
+      <c r="H46" s="2"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H48" s="2"/>
+    </row>
+    <row r="57" spans="12:19" x14ac:dyDescent="0.25">
+      <c r="L57" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="M58" s="6">
-        <v>1</v>
-      </c>
-      <c r="N58" s="6" t="s">
+      <c r="M57" s="6">
+        <v>1</v>
+      </c>
+      <c r="N57" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="O58" s="6"/>
-      <c r="P58" s="6" t="s">
+      <c r="O57" s="6"/>
+      <c r="P57" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="Q58" s="6"/>
-      <c r="R58" s="6"/>
-      <c r="S58" s="2" t="s">
+      <c r="Q57" s="6"/>
+      <c r="R57" s="6"/>
+      <c r="S57" s="2" t="s">
         <v>56</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A26:B27"/>
+    <mergeCell ref="A25:B26"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="H5" r:id="rId1"/>
@@ -1931,7 +1866,7 @@
     <hyperlink ref="H7" r:id="rId4"/>
     <hyperlink ref="H8" r:id="rId5"/>
     <hyperlink ref="H9" r:id="rId6"/>
-    <hyperlink ref="S58" r:id="rId7"/>
+    <hyperlink ref="S57" r:id="rId7"/>
     <hyperlink ref="H11" r:id="rId8"/>
     <hyperlink ref="H13" r:id="rId9"/>
     <hyperlink ref="H14" r:id="rId10"/>
@@ -1943,25 +1878,18 @@
     <hyperlink ref="H20" r:id="rId16"/>
     <hyperlink ref="H21" r:id="rId17"/>
     <hyperlink ref="H22" r:id="rId18"/>
-    <hyperlink ref="H23" r:id="rId19"/>
-    <hyperlink ref="H6" r:id="rId20"/>
+    <hyperlink ref="H6" r:id="rId19"/>
+    <hyperlink ref="H29" r:id="rId20"/>
     <hyperlink ref="H30" r:id="rId21"/>
     <hyperlink ref="H31" r:id="rId22"/>
     <hyperlink ref="H32" r:id="rId23"/>
-    <hyperlink ref="H33" r:id="rId24"/>
-    <hyperlink ref="H29" r:id="rId25"/>
-    <hyperlink ref="H39" r:id="rId26"/>
-    <hyperlink ref="H40" r:id="rId27"/>
-    <hyperlink ref="H43" r:id="rId28"/>
-    <hyperlink ref="H46" r:id="rId29"/>
-    <hyperlink ref="H47" r:id="rId30"/>
-    <hyperlink ref="H49" r:id="rId31"/>
-    <hyperlink ref="H52" r:id="rId32"/>
-    <hyperlink ref="H53" r:id="rId33"/>
-    <hyperlink ref="H54" r:id="rId34"/>
-    <hyperlink ref="H12" r:id="rId35"/>
+    <hyperlink ref="H28" r:id="rId24"/>
+    <hyperlink ref="H37" r:id="rId25"/>
+    <hyperlink ref="H38" r:id="rId26"/>
+    <hyperlink ref="H12" r:id="rId27"/>
+    <hyperlink ref="H36" r:id="rId28"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId36"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId29"/>
 </worksheet>
 </file>
--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="101">
   <si>
     <t>RefDes</t>
   </si>
@@ -319,6 +319,9 @@
   </si>
   <si>
     <t>XLR three-pin socket</t>
+  </si>
+  <si>
+    <t>ebay</t>
   </si>
 </sst>
 </file>
@@ -852,11 +855,11 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -1217,7 +1220,7 @@
   <dimension ref="A1:S57"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1232,10 +1235,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="B1" s="8"/>
+      <c r="B1" s="9"/>
     </row>
     <row r="2" spans="1:8" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -1635,14 +1638,14 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="8" t="s">
+      <c r="A25" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="B25" s="8"/>
+      <c r="B25" s="9"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="8"/>
-      <c r="B26" s="8"/>
+      <c r="A26" s="9"/>
+      <c r="B26" s="9"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
@@ -1669,7 +1672,7 @@
       <c r="B29" s="6">
         <v>1</v>
       </c>
-      <c r="C29" s="9" t="s">
+      <c r="C29" s="8" t="s">
         <v>70</v>
       </c>
       <c r="D29" s="6"/>
@@ -1738,6 +1741,9 @@
       <c r="E33" s="6"/>
       <c r="F33" s="6"/>
       <c r="G33" s="6"/>
+      <c r="H33" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
@@ -1749,6 +1755,9 @@
       <c r="E34" s="6"/>
       <c r="F34" s="6"/>
       <c r="G34" s="6"/>
+      <c r="H34" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">

--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7536"/>
   </bookViews>
   <sheets>
     <sheet name="BOM" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="102">
   <si>
     <t>RefDes</t>
   </si>
@@ -322,6 +322,9 @@
   </si>
   <si>
     <t>ebay</t>
+  </si>
+  <si>
+    <t>https://www.banggood.com/1_8-Inch-Serial-SPI-TFT-LCD-Display-Module-With-Power-IC-SD-Socket-p-909802.html</t>
   </si>
 </sst>
 </file>
@@ -1219,28 +1222,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.5546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5546875" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="4" max="4" width="16.5703125" customWidth="1"/>
-    <col min="5" max="5" width="19.7109375" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="16.5546875" customWidth="1"/>
+    <col min="5" max="5" width="19.6640625" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" customWidth="1"/>
     <col min="7" max="7" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="9" t="s">
         <v>80</v>
       </c>
       <c r="B1" s="9"/>
     </row>
-    <row r="2" spans="1:8" ht="21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="21" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -1263,7 +1266,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>82</v>
       </c>
@@ -1283,7 +1286,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>6</v>
       </c>
@@ -1303,7 +1306,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>9</v>
       </c>
@@ -1323,7 +1326,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="5"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6" t="s">
@@ -1341,7 +1344,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>11</v>
       </c>
@@ -1359,7 +1362,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>13</v>
       </c>
@@ -1381,7 +1384,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>15</v>
       </c>
@@ -1401,7 +1404,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>20</v>
       </c>
@@ -1421,7 +1424,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>18</v>
       </c>
@@ -1439,7 +1442,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>23</v>
       </c>
@@ -1457,7 +1460,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>25</v>
       </c>
@@ -1477,7 +1480,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>27</v>
       </c>
@@ -1497,7 +1500,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>29</v>
       </c>
@@ -1517,7 +1520,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>32</v>
       </c>
@@ -1537,7 +1540,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>35</v>
       </c>
@@ -1557,7 +1560,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>38</v>
       </c>
@@ -1577,7 +1580,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>40</v>
       </c>
@@ -1597,7 +1600,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>42</v>
       </c>
@@ -1617,7 +1620,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>44</v>
       </c>
@@ -1637,17 +1640,17 @@
         <v>66</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="9" t="s">
         <v>83</v>
       </c>
       <c r="B25" s="9"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="9"/>
       <c r="B26" s="9"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
         <v>67</v>
       </c>
@@ -1665,7 +1668,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
         <v>68</v>
       </c>
@@ -1683,7 +1686,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
         <v>72</v>
       </c>
@@ -1699,7 +1702,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
         <v>73</v>
       </c>
@@ -1715,7 +1718,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
         <v>76</v>
       </c>
@@ -1731,7 +1734,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
         <v>77</v>
       </c>
@@ -1745,7 +1748,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
         <v>78</v>
       </c>
@@ -1759,7 +1762,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
         <v>79</v>
       </c>
@@ -1771,8 +1774,11 @@
       <c r="E35" s="6"/>
       <c r="F35" s="6"/>
       <c r="G35" s="6"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H35" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
         <v>97</v>
       </c>
@@ -1790,7 +1796,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
         <v>99</v>
       </c>
@@ -1806,7 +1812,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
         <v>96</v>
       </c>
@@ -1822,7 +1828,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B39" s="6"/>
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
@@ -1831,19 +1837,19 @@
       <c r="G39" s="6"/>
       <c r="H39" s="2"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H42" s="2"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H45" s="2"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H46" s="2"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H48" s="2"/>
     </row>
-    <row r="57" spans="12:19" x14ac:dyDescent="0.25">
+    <row r="57" spans="12:19" x14ac:dyDescent="0.3">
       <c r="L57" s="5" t="s">
         <v>18</v>
       </c>
@@ -1897,8 +1903,9 @@
     <hyperlink ref="H38" r:id="rId26"/>
     <hyperlink ref="H12" r:id="rId27"/>
     <hyperlink ref="H36" r:id="rId28"/>
+    <hyperlink ref="H35" r:id="rId29"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId29"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId30"/>
 </worksheet>
 </file>
--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7536"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
   </bookViews>
   <sheets>
     <sheet name="BOM" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="99">
   <si>
     <t>RefDes</t>
   </si>
@@ -222,9 +222,6 @@
     <t>https://www.digikey.com/product-detail/en/panasonic-electronic-components/ERJ-PA3J105V/P1MBZCT-ND/5036239</t>
   </si>
   <si>
-    <t>3.5mm male plug</t>
-  </si>
-  <si>
     <t>3.5mm female in-line connector</t>
   </si>
   <si>
@@ -277,12 +274,6 @@
   </si>
   <si>
     <t>Sparkfun</t>
-  </si>
-  <si>
-    <t>35HD</t>
-  </si>
-  <si>
-    <t>https://www.digikey.com/product-detail/en/switchcraft-inc/35HDBNS/SC1573-ND/1289606</t>
   </si>
   <si>
     <t>Price</t>
@@ -837,7 +828,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -854,9 +845,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1220,35 +1208,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S57"/>
+  <dimension ref="A1:S56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.5546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5546875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="4" max="4" width="16.5546875" customWidth="1"/>
-    <col min="5" max="5" width="19.6640625" customWidth="1"/>
-    <col min="6" max="6" width="15.6640625" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" customWidth="1"/>
+    <col min="5" max="5" width="19.7109375" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" customWidth="1"/>
     <col min="7" max="7" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="B1" s="9"/>
-    </row>
-    <row r="2" spans="1:8" ht="21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" s="8"/>
+    </row>
+    <row r="2" spans="1:8" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>1</v>
@@ -1260,15 +1248,15 @@
         <v>3</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B3" s="6">
         <v>2</v>
@@ -1286,7 +1274,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>6</v>
       </c>
@@ -1306,7 +1294,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>9</v>
       </c>
@@ -1326,7 +1314,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6" t="s">
@@ -1344,7 +1332,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>11</v>
       </c>
@@ -1362,7 +1350,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>13</v>
       </c>
@@ -1376,7 +1364,7 @@
         <v>14</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
@@ -1384,7 +1372,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>15</v>
       </c>
@@ -1404,7 +1392,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>20</v>
       </c>
@@ -1424,7 +1412,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>18</v>
       </c>
@@ -1432,17 +1420,17 @@
         <v>1</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
       <c r="H12" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>23</v>
       </c>
@@ -1460,7 +1448,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>25</v>
       </c>
@@ -1480,7 +1468,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>27</v>
       </c>
@@ -1492,15 +1480,15 @@
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
       <c r="H15" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>29</v>
       </c>
@@ -1520,7 +1508,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>32</v>
       </c>
@@ -1540,7 +1528,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>35</v>
       </c>
@@ -1560,7 +1548,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>38</v>
       </c>
@@ -1580,7 +1568,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>40</v>
       </c>
@@ -1600,7 +1588,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>42</v>
       </c>
@@ -1620,7 +1608,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>44</v>
       </c>
@@ -1640,17 +1628,17 @@
         <v>66</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="B25" s="9"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="9"/>
-      <c r="B26" s="9"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="B25" s="8"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="8"/>
+      <c r="B26" s="8"/>
+    </row>
+    <row r="28" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>67</v>
       </c>
@@ -1658,35 +1646,33 @@
         <v>1</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
       <c r="G28" s="6"/>
       <c r="H28" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B29" s="6">
         <v>1</v>
       </c>
-      <c r="C29" s="8" t="s">
-        <v>70</v>
-      </c>
+      <c r="C29" s="6"/>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
       <c r="G29" s="6"/>
       <c r="H29" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>72</v>
       </c>
@@ -1699,12 +1685,12 @@
       <c r="F30" s="6"/>
       <c r="G30" s="6"/>
       <c r="H30" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B31" s="6">
         <v>1</v>
@@ -1718,23 +1704,21 @@
         <v>74</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="B32" s="6">
-        <v>1</v>
-      </c>
+      <c r="B32" s="6"/>
       <c r="C32" s="6"/>
       <c r="D32" s="6"/>
       <c r="E32" s="6"/>
       <c r="F32" s="6"/>
       <c r="G32" s="6"/>
-      <c r="H32" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H32" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>77</v>
       </c>
@@ -1745,127 +1729,104 @@
       <c r="F33" s="6"/>
       <c r="G33" s="6"/>
       <c r="H33" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="B34" s="6"/>
+      <c r="B34" s="6">
+        <v>1</v>
+      </c>
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
       <c r="E34" s="6"/>
       <c r="F34" s="6"/>
       <c r="G34" s="6"/>
-      <c r="H34" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A35" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="B35" s="6">
-        <v>1</v>
-      </c>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="6"/>
-      <c r="H35" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A36" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="B36" s="5">
-        <v>1</v>
-      </c>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6" t="s">
+      <c r="H34" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
-      <c r="G36" s="6"/>
-      <c r="H36" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A37" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="B37" s="5">
-        <v>1</v>
-      </c>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="B38" s="6">
+        <v>94</v>
+      </c>
+      <c r="B38" s="5">
         <v>1</v>
       </c>
       <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
+      <c r="D38" s="6" t="s">
+        <v>95</v>
+      </c>
       <c r="E38" s="6"/>
       <c r="F38" s="6"/>
       <c r="G38" s="6"/>
       <c r="H38" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B39" s="6"/>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B39" s="5">
+        <v>1</v>
+      </c>
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
       <c r="F39" s="6"/>
       <c r="G39" s="6"/>
-      <c r="H39" s="2"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="H42" s="2"/>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H39" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B40" s="6">
+        <v>1</v>
+      </c>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H41" s="2"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H44" s="2"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H45" s="2"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="H46" s="2"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="H48" s="2"/>
-    </row>
-    <row r="57" spans="12:19" x14ac:dyDescent="0.3">
-      <c r="L57" s="5" t="s">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H47" s="2"/>
+    </row>
+    <row r="56" spans="12:19" x14ac:dyDescent="0.25">
+      <c r="L56" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="M57" s="6">
-        <v>1</v>
-      </c>
-      <c r="N57" s="6" t="s">
+      <c r="M56" s="6">
+        <v>1</v>
+      </c>
+      <c r="N56" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="O57" s="6"/>
-      <c r="P57" s="6" t="s">
+      <c r="O56" s="6"/>
+      <c r="P56" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="Q57" s="6"/>
-      <c r="R57" s="6"/>
-      <c r="S57" s="2" t="s">
+      <c r="Q56" s="6"/>
+      <c r="R56" s="6"/>
+      <c r="S56" s="2" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1881,7 +1842,7 @@
     <hyperlink ref="H7" r:id="rId4"/>
     <hyperlink ref="H8" r:id="rId5"/>
     <hyperlink ref="H9" r:id="rId6"/>
-    <hyperlink ref="S57" r:id="rId7"/>
+    <hyperlink ref="S56" r:id="rId7"/>
     <hyperlink ref="H11" r:id="rId8"/>
     <hyperlink ref="H13" r:id="rId9"/>
     <hyperlink ref="H14" r:id="rId10"/>
@@ -1894,18 +1855,17 @@
     <hyperlink ref="H21" r:id="rId17"/>
     <hyperlink ref="H22" r:id="rId18"/>
     <hyperlink ref="H6" r:id="rId19"/>
-    <hyperlink ref="H29" r:id="rId20"/>
-    <hyperlink ref="H30" r:id="rId21"/>
-    <hyperlink ref="H31" r:id="rId22"/>
-    <hyperlink ref="H32" r:id="rId23"/>
-    <hyperlink ref="H28" r:id="rId24"/>
-    <hyperlink ref="H37" r:id="rId25"/>
-    <hyperlink ref="H38" r:id="rId26"/>
-    <hyperlink ref="H12" r:id="rId27"/>
-    <hyperlink ref="H36" r:id="rId28"/>
-    <hyperlink ref="H35" r:id="rId29"/>
+    <hyperlink ref="H28" r:id="rId20"/>
+    <hyperlink ref="H29" r:id="rId21"/>
+    <hyperlink ref="H30" r:id="rId22"/>
+    <hyperlink ref="H31" r:id="rId23"/>
+    <hyperlink ref="H39" r:id="rId24"/>
+    <hyperlink ref="H40" r:id="rId25"/>
+    <hyperlink ref="H12" r:id="rId26"/>
+    <hyperlink ref="H38" r:id="rId27"/>
+    <hyperlink ref="H34" r:id="rId28"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId30"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId29"/>
 </worksheet>
 </file>